--- a/Bug report on singn up and login.xlsx
+++ b/Bug report on singn up and login.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\02. Manula Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEABC6EF-13C7-4D1F-880A-6FEC0559155B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEBBAF5-50DB-401F-AF01-F90FE67E6D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="94">
   <si>
     <t>Severity</t>
   </si>
   <si>
-    <t>Priority</t>
-  </si>
-  <si>
     <t>P2</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
   </si>
   <si>
     <t>Expected</t>
-  </si>
-  <si>
-    <t>Capitalization error</t>
   </si>
   <si>
     <t>1. Go to url: www.daraz.com.bd. 
@@ -118,9 +112,6 @@
     <t>Tawfiqul Hasan</t>
   </si>
   <si>
-    <t>Full stop after every sentences</t>
-  </si>
-  <si>
     <t>1. Go to url: www.daraz.com.bd. 
 2. Click Sign Up button .
 3. Check verification field.</t>
@@ -132,9 +123,6 @@
     <t>There will be full stop, ending of a sentence</t>
   </si>
   <si>
-    <t>Require fields</t>
-  </si>
-  <si>
     <t>Should be present all required fields</t>
   </si>
   <si>
@@ -160,9 +148,6 @@
 3. Check for asterisk.</t>
   </si>
   <si>
-    <t>Gender options</t>
-  </si>
-  <si>
     <t>1. Go to url: www.daraz.com.bd.
 2. Click Sign Up button.
 3. Check for gender option.</t>
@@ -174,19 +159,186 @@
     <t>There should be "other" option</t>
   </si>
   <si>
+    <t>Please enter a valid phone number</t>
+  </si>
+  <si>
+    <t>min number</t>
+  </si>
+  <si>
+    <t>OS: Windows 11.
+Browser: Google Chrome
+Network: Stable Internet Connection (WiFi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male and Female gender option should not start with small latter </t>
+  </si>
+  <si>
+    <t>Trivial</t>
+  </si>
+  <si>
+    <t>There is a full stop missing after a sentences</t>
+  </si>
+  <si>
+    <t>Confirm password is a require field but
+it is missing</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Missing gender options</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Using more than maximum digits of phone number does not give error message</t>
+  </si>
+  <si>
     <t>1. Go to url: www.daraz.com.bd. 
 2. Click Sign Up button.
-3.Input  phone number field.</t>
-  </si>
-  <si>
-    <t>Please enter a valid phone number</t>
-  </si>
-  <si>
-    <t>min number</t>
-  </si>
-  <si>
-    <t>Less than minimum digits of phone 
-number</t>
+3.Input more then maximum digits of  phone number in the field.</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd. 
+2. Click Sign Up button.
+3.Input less then minimum digits of  phone number in the field.</t>
+  </si>
+  <si>
+    <t>Using less than minimum digits of phone number does not give error message</t>
+  </si>
+  <si>
+    <t>When it is more than 11 digits it will give "Please enter a valid phone number."</t>
+  </si>
+  <si>
+    <t>max number</t>
+  </si>
+  <si>
+    <t>SEND Button</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click Sign Up button. 
+3. Input invalid number to phone number field and check send button</t>
+  </si>
+  <si>
+    <t>After using invalid phone number "SEND" button gets enable</t>
+  </si>
+  <si>
+    <t>It will not enable untill it's a valid number</t>
+  </si>
+  <si>
+    <t>Should not take any character except digits</t>
+  </si>
+  <si>
+    <t>Verification Field</t>
+  </si>
+  <si>
+    <t>Verification code taking characters as input beside digits</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd. 
+2. Click Sign Up button 
+3. Input e or E to verification field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name field takes neumerics as name </t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click Sign Up button
+3.Input neumeric value in Name field</t>
+  </si>
+  <si>
+    <t>Neumeric Name</t>
+  </si>
+  <si>
+    <t>Should not take only neumeric value</t>
+  </si>
+  <si>
+    <t>Accept first latter of a name with neumeric</t>
+  </si>
+  <si>
+    <t>Start with neumeric</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click Sign Up button
+3. Input neumerical value as starting of a name in Name field</t>
+  </si>
+  <si>
+    <t>It will not accept</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd. 
+2. Click Sign Up button
+3. click Enter button on keyboard.</t>
+  </si>
+  <si>
+    <t>It is not switching to fields after pressing enter key on keyboard</t>
+  </si>
+  <si>
+    <t>Not switching</t>
+  </si>
+  <si>
+    <t>It will switch to another fields</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Maximum Problem</t>
+  </si>
+  <si>
+    <t>Max Problem</t>
+  </si>
+  <si>
+    <t>Alert Message</t>
+  </si>
+  <si>
+    <t>It should give an error message</t>
+  </si>
+  <si>
+    <t>It should give the alert message</t>
+  </si>
+  <si>
+    <t>Taking more than 60 character for phone number</t>
+  </si>
+  <si>
+    <t>Taking more than 60 character for email address</t>
+  </si>
+  <si>
+    <t>Not giving alert message for max and min length of password</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click LOGIN button
+3. give more than 60 character as input in the first field.</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+ 2. Click LOGIN button
+3. give more than 60 character as input in the first field.</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click LOGIN button
+3. give maximum and minimum input in the password field.</t>
+  </si>
+  <si>
+    <t>There should be Mobile and Email Verification option</t>
+  </si>
+  <si>
+    <t>Email Verification</t>
+  </si>
+  <si>
+    <t>Only one way to verify</t>
+  </si>
+  <si>
+    <t>1. Go to url: www.daraz.com.bd.
+2. Click LOGIN button
+3. Input valid phone number or email. 
+4. Slide the slide button".</t>
   </si>
 </sst>
 </file>
@@ -224,7 +376,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +393,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -289,16 +447,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -326,6 +478,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -602,327 +776,603 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="33.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="35" style="8" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="11" style="8" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="19" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="102" customHeight="1" thickBot="1">
+      <c r="A2" s="9">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="47.25" customHeight="1" thickBot="1">
-      <c r="A2" s="11">
-        <v>5</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="I2" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="90.75" thickBot="1">
+      <c r="A3" s="9">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="D3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="45.75" thickBot="1">
-      <c r="A3" s="11">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="I3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="90.75" thickBot="1">
+      <c r="A4" s="9">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="I4" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="90.75" thickBot="1">
+      <c r="A5" s="9">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="90.75" thickBot="1">
+      <c r="A6" s="9">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="90.75" thickBot="1">
+      <c r="A7" s="9">
+        <v>15</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="90.75" thickBot="1">
+      <c r="A8" s="9">
+        <v>16</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="90.75" thickBot="1">
+      <c r="A9" s="9">
+        <v>17</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="90.75" thickBot="1">
+      <c r="A10" s="9">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="90.75" thickBot="1">
+      <c r="A11" s="9">
+        <v>28</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="90.75" thickBot="1">
+      <c r="A12" s="9">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="45.75" thickBot="1">
-      <c r="A4" s="11">
-        <v>7</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="45.75" thickBot="1">
-      <c r="A5" s="11">
-        <v>8</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="B12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="90.75" thickBot="1">
+      <c r="A13" s="9">
         <v>38</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B13" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="90.75" thickBot="1">
+      <c r="A14" s="9">
+        <v>41</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="90.75" thickBot="1">
+      <c r="A15" s="9">
         <v>42</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45.75" thickBot="1">
-      <c r="A6" s="11">
-        <v>9</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="B15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="90.75" thickBot="1">
+      <c r="A16" s="9">
         <v>43</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" ht="45.75" thickBot="1">
-      <c r="A7" s="11">
-        <v>15</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="6" t="s">
+      <c r="B16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="11">
-        <v>16</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="11">
-        <v>17</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="11">
-        <v>18</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="11"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="11"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="11"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="11"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="9"/>
+      <c r="G16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="90.75" thickBot="1">
+      <c r="A17" s="9">
+        <v>53</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="9"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="9"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="9"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="9"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="9"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="9"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{123161D1-019A-4B63-9A14-136C6DA8A182}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{7B5DEB2E-C512-4B31-BB2C-A0E23C971133}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{731DA532-EEF8-4E74-88FD-056F60D9AE99}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{9D5353C6-42D4-441D-B7C4-D99CE8C43F06}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{A7A19874-3A51-4B17-B576-B8991B767693}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{A40C7511-7775-4493-A241-53AEDEC66D28}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{123161D1-019A-4B63-9A14-136C6DA8A182}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{7B5DEB2E-C512-4B31-BB2C-A0E23C971133}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{731DA532-EEF8-4E74-88FD-056F60D9AE99}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{9D5353C6-42D4-441D-B7C4-D99CE8C43F06}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{A7A19874-3A51-4B17-B576-B8991B767693}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{A40C7511-7775-4493-A241-53AEDEC66D28}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{DB3151BE-5F9F-4869-9A4B-D7EDC4CA5B1D}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{C55AC060-DF84-4EBF-94E3-80316E98D344}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{616DB6C8-D9CA-4F81-8113-EAA006DF9285}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{5F137D25-F30E-4F71-A492-720B5F510FB0}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{9AB58F25-10FD-440D-ACE8-BEDF99EDB676}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{88EF53C6-9A67-41AA-99E4-F3BD79582BFC}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{C02D9903-9A0A-4886-8F12-C96C2D0BEC73}"/>
+    <hyperlink ref="G15" r:id="rId14" xr:uid="{578B0BEB-C05D-412D-A313-592605426484}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{42EE8FF8-BA7F-4FBB-8D1E-7D1DAEA2E58E}"/>
+    <hyperlink ref="G17" r:id="rId16" xr:uid="{DD19500B-C5B2-4074-8D45-7B8B5639AD57}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -944,66 +1394,66 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bug report on singn up and login.xlsx
+++ b/Bug report on singn up and login.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEBBAF5-50DB-401F-AF01-F90FE67E6D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691D2B66-0548-4655-AF91-C959CA3D55B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,7 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,11 +369,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -402,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -438,6 +467,234 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -447,22 +704,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -475,31 +720,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -776,584 +1097,586 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="35" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="35" style="4" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="11" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11" style="4" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="36.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="4" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="19" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A1" s="41" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="102" customHeight="1" thickBot="1">
-      <c r="A2" s="9">
+    <row r="2" spans="1:10" ht="102" customHeight="1" thickBot="1">
+      <c r="A2" s="40">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="90.75" thickBot="1">
-      <c r="A3" s="9">
+    <row r="3" spans="1:10" ht="95.25" thickBot="1">
+      <c r="A3" s="40">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="90.75" thickBot="1">
-      <c r="A4" s="9">
+    <row r="4" spans="1:10" ht="95.25" thickBot="1">
+      <c r="A4" s="40">
         <v>7</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="90.75" thickBot="1">
-      <c r="A5" s="9">
+    <row r="5" spans="1:10" ht="95.25" thickBot="1">
+      <c r="A5" s="40">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="90.75" thickBot="1">
-      <c r="A6" s="9">
+    <row r="6" spans="1:10" ht="95.25" thickBot="1">
+      <c r="A6" s="40">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="90.75" thickBot="1">
-      <c r="A7" s="9">
+    <row r="7" spans="1:10" ht="95.25" thickBot="1">
+      <c r="A7" s="40">
         <v>15</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="90.75" thickBot="1">
-      <c r="A8" s="9">
+    <row r="8" spans="1:10" ht="95.25" thickBot="1">
+      <c r="A8" s="40">
         <v>16</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="90.75" thickBot="1">
-      <c r="A9" s="9">
+    <row r="9" spans="1:10" ht="95.25" thickBot="1">
+      <c r="A9" s="40">
         <v>17</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="90.75" thickBot="1">
-      <c r="A10" s="9">
+    <row r="10" spans="1:10" ht="95.25" thickBot="1">
+      <c r="A10" s="40">
         <v>18</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="90.75" thickBot="1">
-      <c r="A11" s="9">
+    <row r="11" spans="1:10" ht="95.25" thickBot="1">
+      <c r="A11" s="40">
         <v>28</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="90.75" thickBot="1">
-      <c r="A12" s="9">
+    <row r="12" spans="1:10" ht="95.25" thickBot="1">
+      <c r="A12" s="40">
         <v>30</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="90.75" thickBot="1">
-      <c r="A13" s="9">
+    <row r="13" spans="1:10" ht="95.25" thickBot="1">
+      <c r="A13" s="40">
         <v>38</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="90.75" thickBot="1">
-      <c r="A14" s="9">
+    <row r="14" spans="1:10" ht="95.25" thickBot="1">
+      <c r="A14" s="40">
         <v>41</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="90.75" thickBot="1">
-      <c r="A15" s="9">
+    <row r="15" spans="1:10" ht="95.25" thickBot="1">
+      <c r="A15" s="40">
         <v>42</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="90.75" thickBot="1">
-      <c r="A16" s="9">
+    <row r="16" spans="1:10" ht="95.25" thickBot="1">
+      <c r="A16" s="38">
         <v>43</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="90.75" thickBot="1">
-      <c r="A17" s="9">
+      <c r="J16" s="42"/>
+    </row>
+    <row r="17" spans="1:10" ht="95.25" thickBot="1">
+      <c r="A17" s="38">
         <v>53</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="9"/>
-      <c r="B18" s="7"/>
+      <c r="J17" s="43"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="39"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="9"/>
-      <c r="B19" s="7"/>
+      <c r="I18" s="32"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="9"/>
-      <c r="B20" s="7"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="9"/>
-      <c r="B21" s="7"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="9"/>
-      <c r="B22" s="7"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="9"/>
-      <c r="B23" s="7"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="7"/>
+      <c r="I23" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
